--- a/Code/Results/Cases/Case_3_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_72/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.32146134779554</v>
+        <v>16.02012629397998</v>
       </c>
       <c r="C2">
-        <v>17.66028627756772</v>
+        <v>9.681425524113124</v>
       </c>
       <c r="D2">
-        <v>3.783982166831919</v>
+        <v>5.484425448639597</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>37.65376859917581</v>
+        <v>33.000050942148</v>
       </c>
       <c r="G2">
-        <v>2.036813443070791</v>
+        <v>3.638034897653364</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>30.17037928416242</v>
+        <v>19.97039798536258</v>
       </c>
       <c r="N2">
-        <v>12.72630183805716</v>
+        <v>18.44959073503417</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.55660908579511</v>
+        <v>15.43027468497448</v>
       </c>
       <c r="C3">
-        <v>16.39809506249059</v>
+        <v>9.114404059122982</v>
       </c>
       <c r="D3">
-        <v>3.825762428745498</v>
+        <v>5.50022711893808</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.4969962477257</v>
+        <v>32.48786273960563</v>
       </c>
       <c r="G3">
-        <v>2.049585147580569</v>
+        <v>3.642272097676737</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.81282609399294</v>
+        <v>19.36962997078813</v>
       </c>
       <c r="N3">
-        <v>12.88371417295661</v>
+        <v>18.49451648002974</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.42081187814254</v>
+        <v>15.06184701594167</v>
       </c>
       <c r="C4">
-        <v>15.58614811658613</v>
+        <v>8.75012428297048</v>
       </c>
       <c r="D4">
-        <v>3.855064399587564</v>
+        <v>5.510772248401409</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>34.15790166816371</v>
+        <v>32.18032167991367</v>
       </c>
       <c r="G4">
-        <v>2.057546079559835</v>
+        <v>3.645004664689208</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.31962843035858</v>
+        <v>18.99957655292726</v>
       </c>
       <c r="N4">
-        <v>12.98653796550441</v>
+        <v>18.52403160506164</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.94456359127743</v>
+        <v>14.91040443096195</v>
       </c>
       <c r="C5">
-        <v>15.24576524697295</v>
+        <v>8.597766091800199</v>
       </c>
       <c r="D5">
-        <v>3.867830390232637</v>
+        <v>5.515280204693637</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>33.60871566381928</v>
+        <v>32.05689670160166</v>
       </c>
       <c r="G5">
-        <v>2.060825041079343</v>
+        <v>3.646151268598247</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.69859176739162</v>
+        <v>18.84873168030756</v>
       </c>
       <c r="N5">
-        <v>13.02989331880603</v>
+        <v>18.53654326304103</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.86466571189721</v>
+        <v>14.88518695861828</v>
       </c>
       <c r="C6">
-        <v>15.18866473995228</v>
+        <v>8.572235707831965</v>
       </c>
       <c r="D6">
-        <v>3.869997564481606</v>
+        <v>5.516041440048851</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>33.51732274527004</v>
+        <v>32.036521285918</v>
       </c>
       <c r="G6">
-        <v>2.061371745321284</v>
+        <v>3.646343662262307</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.59468306289003</v>
+        <v>18.82368886195226</v>
       </c>
       <c r="N6">
-        <v>13.03717765447137</v>
+        <v>18.53865000537662</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.41444364592916</v>
+        <v>15.05980952205379</v>
       </c>
       <c r="C7">
-        <v>15.58159636238931</v>
+        <v>8.74808515118732</v>
       </c>
       <c r="D7">
-        <v>3.855233337356029</v>
+        <v>5.510832192610712</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>34.15050887085972</v>
+        <v>32.17864923174373</v>
       </c>
       <c r="G7">
-        <v>2.057590153755867</v>
+        <v>3.645019994138737</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.31130501028859</v>
+        <v>18.99754204767037</v>
       </c>
       <c r="N7">
-        <v>12.98711690359192</v>
+        <v>18.52419838380234</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.72358945157488</v>
+        <v>15.81819734991304</v>
       </c>
       <c r="C8">
-        <v>17.23261758191184</v>
+        <v>9.489340897375982</v>
       </c>
       <c r="D8">
-        <v>3.79757079225018</v>
+        <v>5.489698200081642</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>36.91327885554482</v>
+        <v>32.82210082673336</v>
       </c>
       <c r="G8">
-        <v>2.04119553965541</v>
+        <v>3.639468800099103</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.36627366922716</v>
+        <v>19.76364493340837</v>
       </c>
       <c r="N8">
-        <v>12.77923272028672</v>
+        <v>18.46467957281216</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.8522195646397</v>
+        <v>17.24519560674032</v>
       </c>
       <c r="C9">
-        <v>20.18786489195257</v>
+        <v>10.81004017571188</v>
       </c>
       <c r="D9">
-        <v>3.718429710999644</v>
+        <v>5.454997178196623</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>42.21261332264326</v>
+        <v>34.13207192719405</v>
       </c>
       <c r="G9">
-        <v>2.009734409833948</v>
+        <v>3.62961511530608</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>35.05385788058862</v>
+        <v>21.24625000321489</v>
       </c>
       <c r="N9">
-        <v>12.42588081014038</v>
+        <v>18.36334681983316</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.66488737139014</v>
+        <v>18.24445958242246</v>
       </c>
       <c r="C10">
-        <v>22.20415878775153</v>
+        <v>11.75688686651017</v>
       </c>
       <c r="D10">
-        <v>3.689481192451929</v>
+        <v>5.433690039821119</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>46.10492485263772</v>
+        <v>35.11447971230285</v>
       </c>
       <c r="G10">
-        <v>1.986610519015673</v>
+        <v>3.622995723795056</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.15436106810991</v>
+        <v>22.31072201699047</v>
       </c>
       <c r="N10">
-        <v>12.20857742379468</v>
+        <v>18.2983671845226</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.90271814998569</v>
+        <v>18.68620657229689</v>
       </c>
       <c r="C11">
-        <v>23.09238720944435</v>
+        <v>12.17092546747112</v>
       </c>
       <c r="D11">
-        <v>3.685123524084353</v>
+        <v>5.42492335045868</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>47.965984056781</v>
+        <v>35.56375834955728</v>
       </c>
       <c r="G11">
-        <v>1.975964715342457</v>
+        <v>3.620117078203849</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>41.03728963672055</v>
+        <v>22.78722912428322</v>
       </c>
       <c r="N11">
-        <v>12.12161270850714</v>
+        <v>18.27088307220303</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.36608771598181</v>
+        <v>18.85148846640055</v>
       </c>
       <c r="C12">
-        <v>23.42502998579278</v>
+        <v>12.32414781487357</v>
       </c>
       <c r="D12">
-        <v>3.685005383447514</v>
+        <v>5.421738264450293</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>48.66925216137061</v>
+        <v>35.73406840316685</v>
       </c>
       <c r="G12">
-        <v>1.971901719181882</v>
+        <v>3.619045917796649</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.7569968871007</v>
+        <v>22.96638549605407</v>
       </c>
       <c r="N12">
-        <v>12.09068335347998</v>
+        <v>18.26077583522405</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.26652043606013</v>
+        <v>18.81598316722958</v>
       </c>
       <c r="C13">
-        <v>23.35354619625831</v>
+        <v>12.2913068998424</v>
       </c>
       <c r="D13">
-        <v>3.68495782223853</v>
+        <v>5.422418215935421</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>48.51783201386929</v>
+        <v>35.69738372892542</v>
       </c>
       <c r="G13">
-        <v>1.972778418284845</v>
+        <v>3.619275772107321</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.60161528154588</v>
+        <v>22.92786079326175</v>
       </c>
       <c r="N13">
-        <v>12.0972501087499</v>
+        <v>18.26293921744784</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.94094348192015</v>
+        <v>18.6998452718349</v>
       </c>
       <c r="C14">
-        <v>23.11982535571319</v>
+        <v>12.18360250423844</v>
       </c>
       <c r="D14">
-        <v>3.685081369193326</v>
+        <v>5.424658603812379</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>48.02386327466041</v>
+        <v>35.57776721503161</v>
       </c>
       <c r="G14">
-        <v>1.975631174216891</v>
+        <v>3.620028574807051</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>41.09633729187932</v>
+        <v>22.80199515381687</v>
       </c>
       <c r="N14">
-        <v>12.1190260881903</v>
+        <v>18.27004551190236</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.74083931298576</v>
+        <v>18.62844300426433</v>
       </c>
       <c r="C15">
-        <v>22.97619648305953</v>
+        <v>12.11716673003486</v>
       </c>
       <c r="D15">
-        <v>3.68536543473285</v>
+        <v>5.426048489188655</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>47.72114514352618</v>
+        <v>35.50451704147103</v>
       </c>
       <c r="G15">
-        <v>1.97737398854022</v>
+        <v>3.620492148004077</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.78785873059151</v>
+        <v>22.7247263617147</v>
       </c>
       <c r="N15">
-        <v>12.13263507850031</v>
+        <v>18.27443750224603</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.58320432929851</v>
+        <v>18.21531871481193</v>
       </c>
       <c r="C16">
-        <v>22.14556497304844</v>
+        <v>11.72932856650982</v>
       </c>
       <c r="D16">
-        <v>3.689964632523389</v>
+        <v>5.434281725819941</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>45.98301702232123</v>
+        <v>35.08515202114884</v>
       </c>
       <c r="G16">
-        <v>1.98730262364517</v>
+        <v>3.623186505296176</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>39.03198465604331</v>
+        <v>22.2794102810647</v>
       </c>
       <c r="N16">
-        <v>12.21452356935095</v>
+        <v>18.30020526490939</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.86276857546997</v>
+        <v>17.95848002141884</v>
       </c>
       <c r="C17">
-        <v>21.62887564677492</v>
+        <v>11.48503248838876</v>
       </c>
       <c r="D17">
-        <v>3.695213944356727</v>
+        <v>5.439570791324742</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>44.93723650982284</v>
+        <v>34.82837599621398</v>
       </c>
       <c r="G17">
-        <v>1.99335250552021</v>
+        <v>3.624873255450454</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.96185619336456</v>
+        <v>22.00411393581392</v>
       </c>
       <c r="N17">
-        <v>12.26799309611971</v>
+        <v>18.31654589697537</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.44442813427914</v>
+        <v>17.80955412112034</v>
       </c>
       <c r="C18">
-        <v>21.32892890875902</v>
+        <v>11.34217290967379</v>
       </c>
       <c r="D18">
-        <v>3.699043735515237</v>
+        <v>5.442699992702877</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>44.363140750035</v>
+        <v>34.68091846124826</v>
       </c>
       <c r="G18">
-        <v>1.996821284993114</v>
+        <v>3.62585591403404</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.34768871094938</v>
+        <v>21.84505287039906</v>
       </c>
       <c r="N18">
-        <v>12.29984539451435</v>
+        <v>18.32613982743214</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.30208715538072</v>
+        <v>17.75892944910617</v>
       </c>
       <c r="C19">
-        <v>21.2268852295341</v>
+        <v>11.29339945439154</v>
       </c>
       <c r="D19">
-        <v>3.700472479384017</v>
+        <v>5.443774395602418</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>44.16865044399379</v>
+        <v>34.63103699156991</v>
       </c>
       <c r="G19">
-        <v>1.99799423126371</v>
+        <v>3.626190773839286</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>37.13986786493864</v>
+        <v>21.79107986160227</v>
       </c>
       <c r="N19">
-        <v>12.31081071743997</v>
+        <v>18.32942163987922</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.93986639854916</v>
+        <v>17.9859462177323</v>
       </c>
       <c r="C20">
-        <v>21.68416075877519</v>
+        <v>11.51128098662849</v>
       </c>
       <c r="D20">
-        <v>3.694569521897983</v>
+        <v>5.438998738969223</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>45.04344200665605</v>
+        <v>34.85568730257533</v>
       </c>
       <c r="G20">
-        <v>1.992709705862335</v>
+        <v>3.624692406932978</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>38.07560861983968</v>
+        <v>22.0334953269998</v>
       </c>
       <c r="N20">
-        <v>12.26218561201561</v>
+        <v>18.31478618916305</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.03671352118987</v>
+        <v>18.73401314675089</v>
       </c>
       <c r="C21">
-        <v>23.18857144400022</v>
+        <v>12.21533450172105</v>
       </c>
       <c r="D21">
-        <v>3.685001092186958</v>
+        <v>5.423996880542985</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>48.16898188176961</v>
+        <v>35.61289793691773</v>
       </c>
       <c r="G21">
-        <v>1.974794234454404</v>
+        <v>3.619806946034167</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>41.24452772840293</v>
+        <v>22.83900117110933</v>
       </c>
       <c r="N21">
-        <v>12.11257294871607</v>
+        <v>18.26795005234732</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.37620546117887</v>
+        <v>19.21121356847899</v>
       </c>
       <c r="C22">
-        <v>24.15044433788107</v>
+        <v>12.65470288112219</v>
       </c>
       <c r="D22">
-        <v>3.687847261791948</v>
+        <v>5.414977974096889</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.2149039988039</v>
+        <v>36.10874372351228</v>
       </c>
       <c r="G22">
-        <v>1.962891851326497</v>
+        <v>3.616724231224686</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.35772231492018</v>
+        <v>23.35787774947529</v>
       </c>
       <c r="N22">
-        <v>12.02665076601631</v>
+        <v>18.23909183535036</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.66388405284071</v>
+        <v>18.95763965231743</v>
       </c>
       <c r="C23">
-        <v>23.63885297809363</v>
+        <v>12.42209807406518</v>
       </c>
       <c r="D23">
-        <v>3.685391430514533</v>
+        <v>5.419719138967178</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>49.12313264466992</v>
+        <v>35.84406609621683</v>
       </c>
       <c r="G23">
-        <v>1.969267516405478</v>
+        <v>3.618359495666063</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.22421199126907</v>
+        <v>23.08168951680996</v>
       </c>
       <c r="N23">
-        <v>12.07130898206192</v>
+        <v>18.25433304964977</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.9050234516284</v>
+        <v>17.97353268151613</v>
       </c>
       <c r="C24">
-        <v>21.65917541097912</v>
+        <v>11.49942155018848</v>
       </c>
       <c r="D24">
-        <v>3.694858355625388</v>
+        <v>5.439257088459383</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>44.9954289171513</v>
+        <v>34.84333933013057</v>
       </c>
       <c r="G24">
-        <v>1.993000343832086</v>
+        <v>3.624774128283849</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>38.02417812623612</v>
+        <v>22.02021444574808</v>
       </c>
       <c r="N24">
-        <v>12.2648077333059</v>
+        <v>18.31558113186606</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.77591304758468</v>
+        <v>16.86697603195838</v>
       </c>
       <c r="C25">
-        <v>19.41698306620198</v>
+        <v>10.46758108519779</v>
       </c>
       <c r="D25">
-        <v>3.735426281579388</v>
+        <v>5.463655010124763</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>40.79100737866339</v>
+        <v>33.77350310296548</v>
       </c>
       <c r="G25">
-        <v>2.018211441621648</v>
+        <v>3.632171239987573</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.53824159617189</v>
+        <v>20.84866027948991</v>
       </c>
       <c r="N25">
-        <v>12.51481959379213</v>
+        <v>18.3891038558883</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_72/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_72/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.02012629397998</v>
+        <v>24.32146134779558</v>
       </c>
       <c r="C2">
-        <v>9.681425524113124</v>
+        <v>17.66028627756774</v>
       </c>
       <c r="D2">
-        <v>5.484425448639597</v>
+        <v>3.783982166832033</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>33.000050942148</v>
+        <v>37.65376859917581</v>
       </c>
       <c r="G2">
-        <v>3.638034897653364</v>
+        <v>2.036813443070793</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>19.97039798536258</v>
+        <v>30.17037928416242</v>
       </c>
       <c r="N2">
-        <v>18.44959073503417</v>
+        <v>12.72630183805719</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.43027468497448</v>
+        <v>22.55660908579513</v>
       </c>
       <c r="C3">
-        <v>9.114404059122982</v>
+        <v>16.39809506249067</v>
       </c>
       <c r="D3">
-        <v>5.50022711893808</v>
+        <v>3.82576242874566</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>32.48786273960563</v>
+        <v>35.49699624772577</v>
       </c>
       <c r="G3">
-        <v>3.642272097676737</v>
+        <v>2.049585147580706</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>19.36962997078813</v>
+        <v>27.8128260939929</v>
       </c>
       <c r="N3">
-        <v>18.49451648002974</v>
+        <v>12.88371417295665</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.06184701594167</v>
+        <v>21.4208118781425</v>
       </c>
       <c r="C4">
-        <v>8.75012428297048</v>
+        <v>15.58614811658616</v>
       </c>
       <c r="D4">
-        <v>5.510772248401409</v>
+        <v>3.855064399587508</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.18032167991367</v>
+        <v>34.1579016681636</v>
       </c>
       <c r="G4">
-        <v>3.645004664689208</v>
+        <v>2.0575460795597</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>18.99957655292726</v>
+        <v>26.31962843035858</v>
       </c>
       <c r="N4">
-        <v>18.52403160506164</v>
+        <v>12.98653796550444</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.91040443096195</v>
+        <v>20.94456359127749</v>
       </c>
       <c r="C5">
-        <v>8.597766091800199</v>
+        <v>15.24576524697298</v>
       </c>
       <c r="D5">
-        <v>5.515280204693637</v>
+        <v>3.867830390232801</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.05689670160166</v>
+        <v>33.60871566381929</v>
       </c>
       <c r="G5">
-        <v>3.646151268598247</v>
+        <v>2.06082504107961</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>18.84873168030756</v>
+        <v>25.69859176739163</v>
       </c>
       <c r="N5">
-        <v>18.53654326304103</v>
+        <v>13.02989331880602</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.88518695861828</v>
+        <v>20.8646657118972</v>
       </c>
       <c r="C6">
-        <v>8.572235707831965</v>
+        <v>15.18866473995221</v>
       </c>
       <c r="D6">
-        <v>5.516041440048851</v>
+        <v>3.869997564481593</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.036521285918</v>
+        <v>33.5173227452699</v>
       </c>
       <c r="G6">
-        <v>3.646343662262307</v>
+        <v>2.061371745321147</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>18.82368886195226</v>
+        <v>25.59468306289003</v>
       </c>
       <c r="N6">
-        <v>18.53865000537662</v>
+        <v>13.03717765447139</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.05980952205379</v>
+        <v>21.41444364592924</v>
       </c>
       <c r="C7">
-        <v>8.74808515118732</v>
+        <v>15.58159636238937</v>
       </c>
       <c r="D7">
-        <v>5.510832192610712</v>
+        <v>3.855233337355867</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.17864923174373</v>
+        <v>34.15050887085975</v>
       </c>
       <c r="G7">
-        <v>3.645019994138737</v>
+        <v>2.05759015375587</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>18.99754204767037</v>
+        <v>26.31130501028862</v>
       </c>
       <c r="N7">
-        <v>18.52419838380234</v>
+        <v>12.98711690359184</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.81819734991304</v>
+        <v>23.7235894515749</v>
       </c>
       <c r="C8">
-        <v>9.489340897375982</v>
+        <v>17.23261758191178</v>
       </c>
       <c r="D8">
-        <v>5.489698200081642</v>
+        <v>3.797570792250232</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>32.82210082673336</v>
+        <v>36.91327885554487</v>
       </c>
       <c r="G8">
-        <v>3.639468800099103</v>
+        <v>2.041195539655277</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>19.76364493340837</v>
+        <v>29.36627366922713</v>
       </c>
       <c r="N8">
-        <v>18.46467957281216</v>
+        <v>12.77923272028676</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.24519560674032</v>
+        <v>27.85221956463976</v>
       </c>
       <c r="C9">
-        <v>10.81004017571188</v>
+        <v>20.1878648919526</v>
       </c>
       <c r="D9">
-        <v>5.454997178196623</v>
+        <v>3.718429710999503</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>34.13207192719405</v>
+        <v>42.2126133226434</v>
       </c>
       <c r="G9">
-        <v>3.62961511530608</v>
+        <v>2.009734409834081</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.24625000321489</v>
+        <v>35.05385788058864</v>
       </c>
       <c r="N9">
-        <v>18.36334681983316</v>
+        <v>12.42588081014031</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.24445958242246</v>
+        <v>30.66488737139032</v>
       </c>
       <c r="C10">
-        <v>11.75688686651017</v>
+        <v>22.20415878775178</v>
       </c>
       <c r="D10">
-        <v>5.433690039821119</v>
+        <v>3.689481192451805</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.11447971230285</v>
+        <v>46.10492485263791</v>
       </c>
       <c r="G10">
-        <v>3.622995723795056</v>
+        <v>1.986610519015678</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>22.31072201699047</v>
+        <v>39.15436106810988</v>
       </c>
       <c r="N10">
-        <v>18.2983671845226</v>
+        <v>12.20857742379468</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.68620657229689</v>
+        <v>31.90271814998548</v>
       </c>
       <c r="C11">
-        <v>12.17092546747112</v>
+        <v>23.09238720944439</v>
       </c>
       <c r="D11">
-        <v>5.42492335045868</v>
+        <v>3.685123524084369</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.56375834955728</v>
+        <v>47.96598405678078</v>
       </c>
       <c r="G11">
-        <v>3.620117078203849</v>
+        <v>1.975964715342861</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>22.78722912428322</v>
+        <v>41.03728963672052</v>
       </c>
       <c r="N11">
-        <v>18.27088307220303</v>
+        <v>12.12161270850722</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.85148846640055</v>
+        <v>32.36608771598181</v>
       </c>
       <c r="C12">
-        <v>12.32414781487357</v>
+        <v>23.42502998579277</v>
       </c>
       <c r="D12">
-        <v>5.421738264450293</v>
+        <v>3.68500538344743</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.73406840316685</v>
+        <v>48.66925216137053</v>
       </c>
       <c r="G12">
-        <v>3.619045917796649</v>
+        <v>1.971901719181882</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>22.96638549605407</v>
+        <v>41.75699688710071</v>
       </c>
       <c r="N12">
-        <v>18.26077583522405</v>
+        <v>12.09068335347995</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.81598316722958</v>
+        <v>32.26652043606034</v>
       </c>
       <c r="C13">
-        <v>12.2913068998424</v>
+        <v>23.35354619625826</v>
       </c>
       <c r="D13">
-        <v>5.422418215935421</v>
+        <v>3.684957822238389</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.69738372892542</v>
+        <v>48.51783201386941</v>
       </c>
       <c r="G13">
-        <v>3.619275772107321</v>
+        <v>1.972778418284715</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>22.92786079326175</v>
+        <v>41.60161528154597</v>
       </c>
       <c r="N13">
-        <v>18.26293921744784</v>
+        <v>12.09725010874976</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.6998452718349</v>
+        <v>31.94094348192026</v>
       </c>
       <c r="C14">
-        <v>12.18360250423844</v>
+        <v>23.1198253557134</v>
       </c>
       <c r="D14">
-        <v>5.424658603812379</v>
+        <v>3.685081369193212</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.57776721503161</v>
+        <v>48.02386327466051</v>
       </c>
       <c r="G14">
-        <v>3.620028574807051</v>
+        <v>1.975631174216888</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>22.80199515381687</v>
+        <v>41.09633729187934</v>
       </c>
       <c r="N14">
-        <v>18.27004551190236</v>
+        <v>12.11902608819022</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.62844300426433</v>
+        <v>31.74083931298568</v>
       </c>
       <c r="C15">
-        <v>12.11716673003486</v>
+        <v>22.97619648305961</v>
       </c>
       <c r="D15">
-        <v>5.426048489188655</v>
+        <v>3.68536543473291</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.50451704147103</v>
+        <v>47.72114514352614</v>
       </c>
       <c r="G15">
-        <v>3.620492148004077</v>
+        <v>1.977373988539952</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>22.7247263617147</v>
+        <v>40.78785873059143</v>
       </c>
       <c r="N15">
-        <v>18.27443750224603</v>
+        <v>12.13263507850039</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.21531871481193</v>
+        <v>30.58320432929871</v>
       </c>
       <c r="C16">
-        <v>11.72932856650982</v>
+        <v>22.14556497304852</v>
       </c>
       <c r="D16">
-        <v>5.434281725819941</v>
+        <v>3.689964632523344</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.08515202114884</v>
+        <v>45.98301702232158</v>
       </c>
       <c r="G16">
-        <v>3.623186505296176</v>
+        <v>1.987302623645165</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>22.2794102810647</v>
+        <v>39.03198465604351</v>
       </c>
       <c r="N16">
-        <v>18.30020526490939</v>
+        <v>12.21452356935083</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.95848002141884</v>
+        <v>29.86276857547002</v>
       </c>
       <c r="C17">
-        <v>11.48503248838876</v>
+        <v>21.62887564677486</v>
       </c>
       <c r="D17">
-        <v>5.439570791324742</v>
+        <v>3.695213944356782</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>34.82837599621398</v>
+        <v>44.93723650982282</v>
       </c>
       <c r="G17">
-        <v>3.624873255450454</v>
+        <v>1.99335250552021</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.00411393581392</v>
+        <v>37.9618561933645</v>
       </c>
       <c r="N17">
-        <v>18.31654589697537</v>
+        <v>12.26799309611967</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.80955412112034</v>
+        <v>29.44442813427918</v>
       </c>
       <c r="C18">
-        <v>11.34217290967379</v>
+        <v>21.32892890875911</v>
       </c>
       <c r="D18">
-        <v>5.442699992702877</v>
+        <v>3.699043735515112</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>34.68091846124826</v>
+        <v>44.36314075003497</v>
       </c>
       <c r="G18">
-        <v>3.62585591403404</v>
+        <v>1.996821284993114</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>21.84505287039906</v>
+        <v>37.3476887109494</v>
       </c>
       <c r="N18">
-        <v>18.32613982743214</v>
+        <v>12.29984539451434</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.75892944910617</v>
+        <v>29.30208715538096</v>
       </c>
       <c r="C19">
-        <v>11.29339945439154</v>
+        <v>21.22688522953418</v>
       </c>
       <c r="D19">
-        <v>5.443774395602418</v>
+        <v>3.700472479384023</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>34.63103699156991</v>
+        <v>44.16865044399393</v>
       </c>
       <c r="G19">
-        <v>3.626190773839286</v>
+        <v>1.997994231263717</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>21.79107986160227</v>
+        <v>37.13986786493863</v>
       </c>
       <c r="N19">
-        <v>18.32942163987922</v>
+        <v>12.31081071743986</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.9859462177323</v>
+        <v>29.93986639854936</v>
       </c>
       <c r="C20">
-        <v>11.51128098662849</v>
+        <v>21.6841607587753</v>
       </c>
       <c r="D20">
-        <v>5.438998738969223</v>
+        <v>3.694569521898078</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>34.85568730257533</v>
+        <v>45.04344200665628</v>
       </c>
       <c r="G20">
-        <v>3.624692406932978</v>
+        <v>1.99270970586233</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.0334953269998</v>
+        <v>38.07560861983979</v>
       </c>
       <c r="N20">
-        <v>18.31478618916305</v>
+        <v>12.26218561201545</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.73401314675089</v>
+        <v>32.03671352118992</v>
       </c>
       <c r="C21">
-        <v>12.21533450172105</v>
+        <v>23.18857144400031</v>
       </c>
       <c r="D21">
-        <v>5.423996880542985</v>
+        <v>3.685001092187079</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.61289793691773</v>
+        <v>48.16898188176972</v>
       </c>
       <c r="G21">
-        <v>3.619806946034167</v>
+        <v>1.974794234454271</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>22.83900117110933</v>
+        <v>41.24452772840313</v>
       </c>
       <c r="N21">
-        <v>18.26795005234732</v>
+        <v>12.11257294871599</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.21121356847899</v>
+        <v>33.37620546117898</v>
       </c>
       <c r="C22">
-        <v>12.65470288112219</v>
+        <v>24.1504443378812</v>
       </c>
       <c r="D22">
-        <v>5.414977974096889</v>
+        <v>3.687847261791963</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>36.10874372351228</v>
+        <v>50.21490399880405</v>
       </c>
       <c r="G22">
-        <v>3.616724231224686</v>
+        <v>1.962891851326365</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.35787774947529</v>
+        <v>43.35772231492017</v>
       </c>
       <c r="N22">
-        <v>18.23909183535036</v>
+        <v>12.0266507660163</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.95763965231743</v>
+        <v>32.66388405284076</v>
       </c>
       <c r="C23">
-        <v>12.42209807406518</v>
+        <v>23.63885297809375</v>
       </c>
       <c r="D23">
-        <v>5.419719138967178</v>
+        <v>3.685391430514504</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.84406609621683</v>
+        <v>49.12313264466997</v>
       </c>
       <c r="G23">
-        <v>3.618359495666063</v>
+        <v>1.969267516405484</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.08168951680996</v>
+        <v>42.224211991269</v>
       </c>
       <c r="N23">
-        <v>18.25433304964977</v>
+        <v>12.07130898206193</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.97353268151613</v>
+        <v>29.90502345162844</v>
       </c>
       <c r="C24">
-        <v>11.49942155018848</v>
+        <v>21.65917541097915</v>
       </c>
       <c r="D24">
-        <v>5.439257088459383</v>
+        <v>3.694858355625525</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>34.84333933013057</v>
+        <v>44.99542891715129</v>
       </c>
       <c r="G24">
-        <v>3.624774128283849</v>
+        <v>1.993000343832216</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.02021444574808</v>
+        <v>38.02417812623587</v>
       </c>
       <c r="N24">
-        <v>18.31558113186606</v>
+        <v>12.26480773330584</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.86697603195838</v>
+        <v>26.77591304758468</v>
       </c>
       <c r="C25">
-        <v>10.46758108519779</v>
+        <v>19.41698306620205</v>
       </c>
       <c r="D25">
-        <v>5.463655010124763</v>
+        <v>3.73542628157943</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>33.77350310296548</v>
+        <v>40.79100737866344</v>
       </c>
       <c r="G25">
-        <v>3.632171239987573</v>
+        <v>2.018211441621911</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.84866027948991</v>
+        <v>33.53824159617198</v>
       </c>
       <c r="N25">
-        <v>18.3891038558883</v>
+        <v>12.51481959379217</v>
       </c>
       <c r="O25">
         <v>0</v>
